--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_159.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_159.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32729-d78311-Reviews-Courtyard_Los_Angeles_Pasadena_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>228</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-PasadenaMonrovia.h18743.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_159.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_159.xlsx
@@ -4323,7 +4323,7 @@
         <v>2882</v>
       </c>
       <c r="B4" t="n">
-        <v>132921</v>
+        <v>163732</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -4388,7 +4388,7 @@
         <v>2882</v>
       </c>
       <c r="B5" t="n">
-        <v>132922</v>
+        <v>163733</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -4453,7 +4453,7 @@
         <v>2882</v>
       </c>
       <c r="B6" t="n">
-        <v>132923</v>
+        <v>163734</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -4518,7 +4518,7 @@
         <v>2882</v>
       </c>
       <c r="B7" t="n">
-        <v>132924</v>
+        <v>163735</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -4583,7 +4583,7 @@
         <v>2882</v>
       </c>
       <c r="B8" t="n">
-        <v>132925</v>
+        <v>163736</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -4644,7 +4644,7 @@
         <v>2882</v>
       </c>
       <c r="B9" t="n">
-        <v>132926</v>
+        <v>163737</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -4715,7 +4715,7 @@
         <v>2882</v>
       </c>
       <c r="B10" t="n">
-        <v>132927</v>
+        <v>163738</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
@@ -4780,7 +4780,7 @@
         <v>2882</v>
       </c>
       <c r="B11" t="n">
-        <v>132928</v>
+        <v>163739</v>
       </c>
       <c r="C11" t="s">
         <v>124</v>
@@ -4851,7 +4851,7 @@
         <v>2882</v>
       </c>
       <c r="B12" t="n">
-        <v>132929</v>
+        <v>163740</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -5056,7 +5056,7 @@
         <v>2882</v>
       </c>
       <c r="B15" t="n">
-        <v>132930</v>
+        <v>163741</v>
       </c>
       <c r="C15" t="s">
         <v>158</v>
@@ -5192,7 +5192,7 @@
         <v>2882</v>
       </c>
       <c r="B17" t="n">
-        <v>132931</v>
+        <v>163742</v>
       </c>
       <c r="C17" t="s">
         <v>175</v>
@@ -5261,7 +5261,7 @@
         <v>2882</v>
       </c>
       <c r="B18" t="n">
-        <v>132932</v>
+        <v>163743</v>
       </c>
       <c r="C18" t="s">
         <v>183</v>
@@ -5326,7 +5326,7 @@
         <v>2882</v>
       </c>
       <c r="B19" t="n">
-        <v>132933</v>
+        <v>163744</v>
       </c>
       <c r="C19" t="s">
         <v>193</v>
@@ -5460,7 +5460,7 @@
         <v>2882</v>
       </c>
       <c r="B21" t="n">
-        <v>132934</v>
+        <v>163745</v>
       </c>
       <c r="C21" t="s">
         <v>213</v>
@@ -5529,7 +5529,7 @@
         <v>2882</v>
       </c>
       <c r="B22" t="n">
-        <v>132935</v>
+        <v>163746</v>
       </c>
       <c r="C22" t="s">
         <v>223</v>
@@ -5600,7 +5600,7 @@
         <v>2882</v>
       </c>
       <c r="B23" t="n">
-        <v>132936</v>
+        <v>163747</v>
       </c>
       <c r="C23" t="s">
         <v>231</v>
@@ -5671,7 +5671,7 @@
         <v>2882</v>
       </c>
       <c r="B24" t="n">
-        <v>132937</v>
+        <v>163748</v>
       </c>
       <c r="C24" t="s">
         <v>241</v>
@@ -5801,7 +5801,7 @@
         <v>2882</v>
       </c>
       <c r="B26" t="n">
-        <v>132938</v>
+        <v>163749</v>
       </c>
       <c r="C26" t="s">
         <v>257</v>
@@ -5866,7 +5866,7 @@
         <v>2882</v>
       </c>
       <c r="B27" t="n">
-        <v>132939</v>
+        <v>163750</v>
       </c>
       <c r="C27" t="s">
         <v>266</v>
@@ -5931,7 +5931,7 @@
         <v>2882</v>
       </c>
       <c r="B28" t="n">
-        <v>132940</v>
+        <v>163751</v>
       </c>
       <c r="C28" t="s">
         <v>275</v>
@@ -6000,7 +6000,7 @@
         <v>2882</v>
       </c>
       <c r="B29" t="n">
-        <v>132941</v>
+        <v>163752</v>
       </c>
       <c r="C29" t="s">
         <v>283</v>
@@ -6140,7 +6140,7 @@
         <v>2882</v>
       </c>
       <c r="B31" t="n">
-        <v>132942</v>
+        <v>163753</v>
       </c>
       <c r="C31" t="s">
         <v>302</v>
@@ -6276,7 +6276,7 @@
         <v>2882</v>
       </c>
       <c r="B33" t="n">
-        <v>132943</v>
+        <v>163754</v>
       </c>
       <c r="C33" t="s">
         <v>322</v>
@@ -6412,7 +6412,7 @@
         <v>2882</v>
       </c>
       <c r="B35" t="n">
-        <v>132944</v>
+        <v>163755</v>
       </c>
       <c r="C35" t="s">
         <v>341</v>
@@ -6477,7 +6477,7 @@
         <v>2882</v>
       </c>
       <c r="B36" t="n">
-        <v>132945</v>
+        <v>163756</v>
       </c>
       <c r="C36" t="s">
         <v>350</v>
@@ -6548,7 +6548,7 @@
         <v>2882</v>
       </c>
       <c r="B37" t="n">
-        <v>132946</v>
+        <v>163757</v>
       </c>
       <c r="C37" t="s">
         <v>360</v>
@@ -6680,7 +6680,7 @@
         <v>2882</v>
       </c>
       <c r="B39" t="n">
-        <v>132947</v>
+        <v>163758</v>
       </c>
       <c r="C39" t="s">
         <v>379</v>
@@ -6751,7 +6751,7 @@
         <v>2882</v>
       </c>
       <c r="B40" t="n">
-        <v>132948</v>
+        <v>163759</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -6816,7 +6816,7 @@
         <v>2882</v>
       </c>
       <c r="B41" t="n">
-        <v>132949</v>
+        <v>163760</v>
       </c>
       <c r="C41" t="s">
         <v>396</v>
@@ -7019,7 +7019,7 @@
         <v>2882</v>
       </c>
       <c r="B44" t="n">
-        <v>132950</v>
+        <v>163761</v>
       </c>
       <c r="C44" t="s">
         <v>423</v>
@@ -7155,7 +7155,7 @@
         <v>2882</v>
       </c>
       <c r="B46" t="n">
-        <v>132951</v>
+        <v>163762</v>
       </c>
       <c r="C46" t="s">
         <v>441</v>
@@ -7224,7 +7224,7 @@
         <v>2882</v>
       </c>
       <c r="B47" t="n">
-        <v>132952</v>
+        <v>163763</v>
       </c>
       <c r="C47" t="s">
         <v>450</v>
@@ -7289,7 +7289,7 @@
         <v>2882</v>
       </c>
       <c r="B48" t="n">
-        <v>132953</v>
+        <v>141321</v>
       </c>
       <c r="C48" t="s">
         <v>460</v>
@@ -7360,7 +7360,7 @@
         <v>2882</v>
       </c>
       <c r="B49" t="n">
-        <v>132954</v>
+        <v>163764</v>
       </c>
       <c r="C49" t="s">
         <v>470</v>
@@ -7429,7 +7429,7 @@
         <v>2882</v>
       </c>
       <c r="B50" t="n">
-        <v>132955</v>
+        <v>163765</v>
       </c>
       <c r="C50" t="s">
         <v>480</v>
@@ -7494,7 +7494,7 @@
         <v>2882</v>
       </c>
       <c r="B51" t="n">
-        <v>132956</v>
+        <v>163766</v>
       </c>
       <c r="C51" t="s">
         <v>490</v>
@@ -7565,7 +7565,7 @@
         <v>2882</v>
       </c>
       <c r="B52" t="n">
-        <v>132957</v>
+        <v>163767</v>
       </c>
       <c r="C52" t="s">
         <v>497</v>
@@ -7630,7 +7630,7 @@
         <v>2882</v>
       </c>
       <c r="B53" t="n">
-        <v>132958</v>
+        <v>163768</v>
       </c>
       <c r="C53" t="s">
         <v>504</v>
@@ -7764,7 +7764,7 @@
         <v>2882</v>
       </c>
       <c r="B55" t="n">
-        <v>132959</v>
+        <v>163769</v>
       </c>
       <c r="C55" t="s">
         <v>520</v>
@@ -7973,7 +7973,7 @@
         <v>2882</v>
       </c>
       <c r="B58" t="n">
-        <v>132960</v>
+        <v>163770</v>
       </c>
       <c r="C58" t="s">
         <v>547</v>
@@ -8044,7 +8044,7 @@
         <v>2882</v>
       </c>
       <c r="B59" t="n">
-        <v>132961</v>
+        <v>163771</v>
       </c>
       <c r="C59" t="s">
         <v>557</v>
@@ -8115,7 +8115,7 @@
         <v>2882</v>
       </c>
       <c r="B60" t="n">
-        <v>132962</v>
+        <v>163772</v>
       </c>
       <c r="C60" t="s">
         <v>566</v>
@@ -8182,7 +8182,7 @@
         <v>2882</v>
       </c>
       <c r="B61" t="n">
-        <v>132963</v>
+        <v>163773</v>
       </c>
       <c r="C61" t="s">
         <v>575</v>
@@ -8251,7 +8251,7 @@
         <v>2882</v>
       </c>
       <c r="B62" t="n">
-        <v>132964</v>
+        <v>163774</v>
       </c>
       <c r="C62" t="s">
         <v>585</v>
@@ -8322,7 +8322,7 @@
         <v>2882</v>
       </c>
       <c r="B63" t="n">
-        <v>132965</v>
+        <v>163775</v>
       </c>
       <c r="C63" t="s">
         <v>592</v>
@@ -8458,7 +8458,7 @@
         <v>2882</v>
       </c>
       <c r="B65" t="n">
-        <v>132966</v>
+        <v>163776</v>
       </c>
       <c r="C65" t="s">
         <v>610</v>
@@ -8523,7 +8523,7 @@
         <v>2882</v>
       </c>
       <c r="B66" t="n">
-        <v>132967</v>
+        <v>163777</v>
       </c>
       <c r="C66" t="s">
         <v>619</v>
@@ -8594,7 +8594,7 @@
         <v>2882</v>
       </c>
       <c r="B67" t="n">
-        <v>132968</v>
+        <v>163778</v>
       </c>
       <c r="C67" t="s">
         <v>627</v>
@@ -8665,7 +8665,7 @@
         <v>2882</v>
       </c>
       <c r="B68" t="n">
-        <v>132969</v>
+        <v>163779</v>
       </c>
       <c r="C68" t="s">
         <v>634</v>
@@ -8740,7 +8740,7 @@
         <v>2882</v>
       </c>
       <c r="B69" t="n">
-        <v>132970</v>
+        <v>163780</v>
       </c>
       <c r="C69" t="s">
         <v>643</v>
@@ -8815,7 +8815,7 @@
         <v>2882</v>
       </c>
       <c r="B70" t="n">
-        <v>132971</v>
+        <v>163781</v>
       </c>
       <c r="C70" t="s">
         <v>652</v>
@@ -8890,7 +8890,7 @@
         <v>2882</v>
       </c>
       <c r="B71" t="n">
-        <v>132972</v>
+        <v>163782</v>
       </c>
       <c r="C71" t="s">
         <v>661</v>
@@ -9263,7 +9263,7 @@
         <v>2882</v>
       </c>
       <c r="B76" t="n">
-        <v>132973</v>
+        <v>163783</v>
       </c>
       <c r="C76" t="s">
         <v>706</v>
@@ -9338,7 +9338,7 @@
         <v>2882</v>
       </c>
       <c r="B77" t="n">
-        <v>132974</v>
+        <v>163784</v>
       </c>
       <c r="C77" t="s">
         <v>716</v>
@@ -9403,7 +9403,7 @@
         <v>2882</v>
       </c>
       <c r="B78" t="n">
-        <v>132975</v>
+        <v>163785</v>
       </c>
       <c r="C78" t="s">
         <v>723</v>
@@ -9478,7 +9478,7 @@
         <v>2882</v>
       </c>
       <c r="B79" t="n">
-        <v>132976</v>
+        <v>163786</v>
       </c>
       <c r="C79" t="s">
         <v>732</v>
@@ -9553,7 +9553,7 @@
         <v>2882</v>
       </c>
       <c r="B80" t="n">
-        <v>132977</v>
+        <v>163787</v>
       </c>
       <c r="C80" t="s">
         <v>739</v>
@@ -9628,7 +9628,7 @@
         <v>2882</v>
       </c>
       <c r="B81" t="n">
-        <v>132978</v>
+        <v>163788</v>
       </c>
       <c r="C81" t="s">
         <v>749</v>
@@ -9703,7 +9703,7 @@
         <v>2882</v>
       </c>
       <c r="B82" t="n">
-        <v>132979</v>
+        <v>163789</v>
       </c>
       <c r="C82" t="s">
         <v>759</v>
@@ -9849,7 +9849,7 @@
         <v>2882</v>
       </c>
       <c r="B84" t="n">
-        <v>132980</v>
+        <v>163790</v>
       </c>
       <c r="C84" t="s">
         <v>775</v>
@@ -9924,7 +9924,7 @@
         <v>2882</v>
       </c>
       <c r="B85" t="n">
-        <v>132981</v>
+        <v>163791</v>
       </c>
       <c r="C85" t="s">
         <v>783</v>
@@ -9989,7 +9989,7 @@
         <v>2882</v>
       </c>
       <c r="B86" t="n">
-        <v>132982</v>
+        <v>163792</v>
       </c>
       <c r="C86" t="s">
         <v>790</v>
@@ -10064,7 +10064,7 @@
         <v>2882</v>
       </c>
       <c r="B87" t="n">
-        <v>132983</v>
+        <v>163793</v>
       </c>
       <c r="C87" t="s">
         <v>799</v>
@@ -10139,7 +10139,7 @@
         <v>2882</v>
       </c>
       <c r="B88" t="n">
-        <v>132984</v>
+        <v>163794</v>
       </c>
       <c r="C88" t="s">
         <v>806</v>
@@ -10214,7 +10214,7 @@
         <v>2882</v>
       </c>
       <c r="B89" t="n">
-        <v>132985</v>
+        <v>163795</v>
       </c>
       <c r="C89" t="s">
         <v>813</v>
@@ -10287,7 +10287,7 @@
         <v>2882</v>
       </c>
       <c r="B90" t="n">
-        <v>132986</v>
+        <v>163796</v>
       </c>
       <c r="C90" t="s">
         <v>823</v>
@@ -10362,7 +10362,7 @@
         <v>2882</v>
       </c>
       <c r="B91" t="n">
-        <v>132987</v>
+        <v>163797</v>
       </c>
       <c r="C91" t="s">
         <v>831</v>
@@ -10437,7 +10437,7 @@
         <v>2882</v>
       </c>
       <c r="B92" t="n">
-        <v>132988</v>
+        <v>163798</v>
       </c>
       <c r="C92" t="s">
         <v>840</v>
@@ -10512,7 +10512,7 @@
         <v>2882</v>
       </c>
       <c r="B93" t="n">
-        <v>132989</v>
+        <v>163799</v>
       </c>
       <c r="C93" t="s">
         <v>848</v>
@@ -10662,7 +10662,7 @@
         <v>2882</v>
       </c>
       <c r="B95" t="n">
-        <v>132990</v>
+        <v>163800</v>
       </c>
       <c r="C95" t="s">
         <v>864</v>
@@ -10737,7 +10737,7 @@
         <v>2882</v>
       </c>
       <c r="B96" t="n">
-        <v>132991</v>
+        <v>163801</v>
       </c>
       <c r="C96" t="s">
         <v>873</v>
@@ -10812,7 +10812,7 @@
         <v>2882</v>
       </c>
       <c r="B97" t="n">
-        <v>132992</v>
+        <v>163802</v>
       </c>
       <c r="C97" t="s">
         <v>883</v>
@@ -10887,7 +10887,7 @@
         <v>2882</v>
       </c>
       <c r="B98" t="n">
-        <v>132993</v>
+        <v>163803</v>
       </c>
       <c r="C98" t="s">
         <v>893</v>
@@ -10962,7 +10962,7 @@
         <v>2882</v>
       </c>
       <c r="B99" t="n">
-        <v>132994</v>
+        <v>163804</v>
       </c>
       <c r="C99" t="s">
         <v>902</v>
@@ -11037,7 +11037,7 @@
         <v>2882</v>
       </c>
       <c r="B100" t="n">
-        <v>132995</v>
+        <v>163805</v>
       </c>
       <c r="C100" t="s">
         <v>911</v>
@@ -11108,7 +11108,7 @@
         <v>2882</v>
       </c>
       <c r="B101" t="n">
-        <v>132996</v>
+        <v>163806</v>
       </c>
       <c r="C101" t="s">
         <v>918</v>
@@ -11329,7 +11329,7 @@
         <v>2882</v>
       </c>
       <c r="B104" t="n">
-        <v>132997</v>
+        <v>163807</v>
       </c>
       <c r="C104" t="s">
         <v>945</v>
@@ -11404,7 +11404,7 @@
         <v>2882</v>
       </c>
       <c r="B105" t="n">
-        <v>132998</v>
+        <v>163808</v>
       </c>
       <c r="C105" t="s">
         <v>955</v>
@@ -11479,7 +11479,7 @@
         <v>2882</v>
       </c>
       <c r="B106" t="n">
-        <v>132999</v>
+        <v>163809</v>
       </c>
       <c r="C106" t="s">
         <v>963</v>
@@ -11554,7 +11554,7 @@
         <v>2882</v>
       </c>
       <c r="B107" t="n">
-        <v>133000</v>
+        <v>163810</v>
       </c>
       <c r="C107" t="s">
         <v>973</v>
@@ -11629,7 +11629,7 @@
         <v>2882</v>
       </c>
       <c r="B108" t="n">
-        <v>133001</v>
+        <v>163811</v>
       </c>
       <c r="C108" t="s">
         <v>983</v>
@@ -11704,7 +11704,7 @@
         <v>2882</v>
       </c>
       <c r="B109" t="n">
-        <v>133002</v>
+        <v>163812</v>
       </c>
       <c r="C109" t="s">
         <v>993</v>
@@ -11854,7 +11854,7 @@
         <v>2882</v>
       </c>
       <c r="B111" t="n">
-        <v>133003</v>
+        <v>163813</v>
       </c>
       <c r="C111" t="s">
         <v>1012</v>
@@ -12004,7 +12004,7 @@
         <v>2882</v>
       </c>
       <c r="B113" t="n">
-        <v>133004</v>
+        <v>163814</v>
       </c>
       <c r="C113" t="s">
         <v>1029</v>
@@ -12079,7 +12079,7 @@
         <v>2882</v>
       </c>
       <c r="B114" t="n">
-        <v>133005</v>
+        <v>163815</v>
       </c>
       <c r="C114" t="s">
         <v>1039</v>
@@ -12154,7 +12154,7 @@
         <v>2882</v>
       </c>
       <c r="B115" t="n">
-        <v>133006</v>
+        <v>163816</v>
       </c>
       <c r="C115" t="s">
         <v>1049</v>
@@ -12300,7 +12300,7 @@
         <v>2882</v>
       </c>
       <c r="B117" t="n">
-        <v>133007</v>
+        <v>163817</v>
       </c>
       <c r="C117" t="s">
         <v>1068</v>
@@ -12367,7 +12367,7 @@
         <v>2882</v>
       </c>
       <c r="B118" t="n">
-        <v>133008</v>
+        <v>163818</v>
       </c>
       <c r="C118" t="s">
         <v>1075</v>
@@ -12505,7 +12505,7 @@
         <v>2882</v>
       </c>
       <c r="B120" t="n">
-        <v>133009</v>
+        <v>163819</v>
       </c>
       <c r="C120" t="s">
         <v>1089</v>
@@ -12576,7 +12576,7 @@
         <v>2882</v>
       </c>
       <c r="B121" t="n">
-        <v>133010</v>
+        <v>163820</v>
       </c>
       <c r="C121" t="s">
         <v>1096</v>
@@ -12643,7 +12643,7 @@
         <v>2882</v>
       </c>
       <c r="B122" t="n">
-        <v>133011</v>
+        <v>163821</v>
       </c>
       <c r="C122" t="s">
         <v>1102</v>
@@ -12714,7 +12714,7 @@
         <v>2882</v>
       </c>
       <c r="B123" t="n">
-        <v>133012</v>
+        <v>163822</v>
       </c>
       <c r="C123" t="s">
         <v>1110</v>
@@ -12779,7 +12779,7 @@
         <v>2882</v>
       </c>
       <c r="B124" t="n">
-        <v>133013</v>
+        <v>163823</v>
       </c>
       <c r="C124" t="s">
         <v>1119</v>
@@ -12854,7 +12854,7 @@
         <v>2882</v>
       </c>
       <c r="B125" t="n">
-        <v>133014</v>
+        <v>163824</v>
       </c>
       <c r="C125" t="s">
         <v>1129</v>
@@ -12921,7 +12921,7 @@
         <v>2882</v>
       </c>
       <c r="B126" t="n">
-        <v>133015</v>
+        <v>163825</v>
       </c>
       <c r="C126" t="s">
         <v>1136</v>
@@ -12992,7 +12992,7 @@
         <v>2882</v>
       </c>
       <c r="B127" t="n">
-        <v>133016</v>
+        <v>163826</v>
       </c>
       <c r="C127" t="s">
         <v>1144</v>
@@ -13063,7 +13063,7 @@
         <v>2882</v>
       </c>
       <c r="B128" t="n">
-        <v>133017</v>
+        <v>163827</v>
       </c>
       <c r="C128" t="s">
         <v>1151</v>
@@ -13134,7 +13134,7 @@
         <v>2882</v>
       </c>
       <c r="B129" t="n">
-        <v>133018</v>
+        <v>163828</v>
       </c>
       <c r="C129" t="s">
         <v>1158</v>
@@ -13276,7 +13276,7 @@
         <v>2882</v>
       </c>
       <c r="B131" t="n">
-        <v>133019</v>
+        <v>163829</v>
       </c>
       <c r="C131" t="s">
         <v>1173</v>
@@ -13347,7 +13347,7 @@
         <v>2882</v>
       </c>
       <c r="B132" t="n">
-        <v>133020</v>
+        <v>163830</v>
       </c>
       <c r="C132" t="s">
         <v>1180</v>
@@ -13418,7 +13418,7 @@
         <v>2882</v>
       </c>
       <c r="B133" t="n">
-        <v>133021</v>
+        <v>163831</v>
       </c>
       <c r="C133" t="s">
         <v>1188</v>
@@ -13489,7 +13489,7 @@
         <v>2882</v>
       </c>
       <c r="B134" t="n">
-        <v>133022</v>
+        <v>163832</v>
       </c>
       <c r="C134" t="s">
         <v>1196</v>
@@ -13560,7 +13560,7 @@
         <v>2882</v>
       </c>
       <c r="B135" t="n">
-        <v>133023</v>
+        <v>163833</v>
       </c>
       <c r="C135" t="s">
         <v>1204</v>
